--- a/product.xlsx
+++ b/product.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{DAEB71B5-82EC-4D17-A571-7F9A6DF96A2C}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B4222C-D457-4B40-8F17-8BA4690F9CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="162913"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -27,7 +27,11 @@
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
 <sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
-    <t>商品名称</t>
+    <t>商品id</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>商品名</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -36,10 +40,6 @@
   </si>
   <si>
     <t>商品数量</t>
-    <phoneticPr fontId="1" type="noConversion"/>
-  </si>
-  <si>
-    <t>商品编号</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
@@ -55,6 +55,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -376,23 +377,23 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="B4" sqref="B4"/>
+      <selection activeCell="J11" sqref="J11"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
     <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
+        <v>0</v>
+      </c>
+      <c r="B1" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" t="s">
         <v>3</v>
-      </c>
-      <c r="B1" t="s">
-        <v>0</v>
-      </c>
-      <c r="C1" t="s">
-        <v>1</v>
-      </c>
-      <c r="D1" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" spans="1:4" x14ac:dyDescent="0.25">
@@ -403,10 +404,10 @@
         <v>4</v>
       </c>
       <c r="C2">
-        <v>3</v>
-      </c>
-      <c r="D2">
-        <v>20</v>
+        <v>5</v>
+      </c>
+      <c r="D2" t="n">
+        <v>14.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -417,10 +418,10 @@
         <v>5</v>
       </c>
       <c r="C3">
-        <v>2</v>
-      </c>
-      <c r="D3">
-        <v>15</v>
+        <v>3</v>
+      </c>
+      <c r="D3" t="n">
+        <v>11.0</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>14.0</v>
+        <v>-1.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>11.0</v>
+        <v>6.0</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{E5B4222C-D457-4B40-8F17-8BA4690F9CF2}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20AFB6A-DBD1-48C1-B599-338046480EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -377,7 +377,7 @@
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="J11" sqref="J11"/>
+      <selection activeCell="E6" sqref="E6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -407,7 +407,7 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>-1.0</v>
+        <v>45.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -421,7 +421,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>6.0</v>
+        <v>36.0</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -1,23 +1,17 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
   <workbookPr/>
-  <mc:AlternateContent>
-    <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
-    </mc:Choice>
-  </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D20AFB6A-DBD1-48C1-B599-338046480EE3}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
   </sheets>
-  <calcPr calcId="162913"/>
+  <calcPr calcId="144525"/>
   <extLst>
-    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -54,9 +48,9 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <numFmts count="0"/>
-  <fonts count="2" x14ac:knownFonts="1">
+  <fonts count="2">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -154,7 +148,7 @@
     </a:clrScheme>
     <a:fontScheme name="Office">
       <a:majorFont>
-        <a:latin typeface="Calibri Light" panose="020F0302020204030204"/>
+        <a:latin typeface="Calibri Light"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic Light"/>
@@ -189,7 +183,7 @@
         <a:font script="Geor" typeface="Sylfaen"/>
       </a:majorFont>
       <a:minorFont>
-        <a:latin typeface="Calibri" panose="020F0502020204030204"/>
+        <a:latin typeface="Calibri"/>
         <a:ea typeface=""/>
         <a:cs typeface=""/>
         <a:font script="Jpan" typeface="Yu Gothic"/>
@@ -373,16 +367,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:D3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E6" sqref="E6"/>
+      <selection activeCell="D3" sqref="D3"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="13.5"/>
   <sheetData>
-    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:4">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -396,7 +390,7 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:4">
       <c r="A2">
         <v>123</v>
       </c>
@@ -407,10 +401,10 @@
         <v>5</v>
       </c>
       <c r="D2" t="n">
-        <v>45.0</v>
+        <v>795.0</v>
       </c>
     </row>
-    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:4">
       <c r="A3">
         <v>124</v>
       </c>
@@ -421,7 +415,7 @@
         <v>3</v>
       </c>
       <c r="D3" t="n">
-        <v>36.0</v>
+        <v>788.0</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9302"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F34E5-32C9-4512-9D15-87E81A725638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-105" yWindow="-105" windowWidth="23250" windowHeight="12570"/>
+    <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -19,7 +25,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="10" uniqueCount="10">
   <si>
     <t>商品id</t>
     <phoneticPr fontId="1" type="noConversion"/>
@@ -41,16 +47,31 @@
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
   <si>
-    <t>牛奶</t>
+    <t>脉动</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>王老吉</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>和其正</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>卫龙</t>
+    <phoneticPr fontId="1" type="noConversion"/>
+  </si>
+  <si>
+    <t>螺狮粉</t>
     <phoneticPr fontId="1" type="noConversion"/>
   </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <numFmts count="0"/>
-  <fonts count="2">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -367,16 +388,16 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:D3"/>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
+  <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="D3" sqref="D3"/>
+      <selection activeCell="E8" sqref="E8"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="13.5"/>
+  <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
   <sheetData>
-    <row r="1" spans="1:4">
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A1" t="s">
         <v>0</v>
       </c>
@@ -390,32 +411,88 @@
         <v>3</v>
       </c>
     </row>
-    <row r="2" spans="1:4">
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A2">
-        <v>123</v>
+        <v>100</v>
       </c>
       <c r="B2" t="s">
         <v>4</v>
       </c>
       <c r="C2">
-        <v>5</v>
-      </c>
-      <c r="D2" t="n">
-        <v>795.0</v>
-      </c>
-    </row>
-    <row r="3" spans="1:4">
+        <v>3</v>
+      </c>
+      <c r="D2">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
       <c r="A3">
-        <v>124</v>
+        <v>101</v>
       </c>
       <c r="B3" t="s">
         <v>5</v>
       </c>
       <c r="C3">
-        <v>3</v>
-      </c>
-      <c r="D3" t="n">
-        <v>788.0</v>
+        <v>4</v>
+      </c>
+      <c r="D3">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4">
+        <v>102</v>
+      </c>
+      <c r="B4" t="s">
+        <v>6</v>
+      </c>
+      <c r="C4">
+        <v>2</v>
+      </c>
+      <c r="D4">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5">
+        <v>103</v>
+      </c>
+      <c r="B5" t="s">
+        <v>7</v>
+      </c>
+      <c r="C5">
+        <v>2</v>
+      </c>
+      <c r="D5">
+        <v>200</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6">
+        <v>104</v>
+      </c>
+      <c r="B6" t="s">
+        <v>8</v>
+      </c>
+      <c r="C6">
+        <v>1</v>
+      </c>
+      <c r="D6">
+        <v>300</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7">
+        <v>105</v>
+      </c>
+      <c r="B7" t="s">
+        <v>9</v>
+      </c>
+      <c r="C7">
+        <v>8</v>
+      </c>
+      <c r="D7">
+        <v>50</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -3,12 +3,12 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
   <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="23426"/>
   <workbookPr/>
-  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+  <mc:AlternateContent>
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Bucher\Desktop\lanqiao\CmdShopInLQ\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F38F34E5-32C9-4512-9D15-87E81A725638}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{22CCBE96-0AD2-49EA-8935-9F8B87018716}" xr6:coauthVersionLast="45" xr6:coauthVersionMax="45" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -17,7 +17,7 @@
   </sheets>
   <calcPr calcId="144525"/>
   <extLst>
-    <ext xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
+    <ext uri="{140A7094-0E35-4892-8432-C4D2E57EDEB5}">
       <x15:workbookPr chartTrackingRefBase="1"/>
     </ext>
   </extLst>
@@ -71,6 +71,7 @@
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
+  <numFmts count="0"/>
   <fonts count="2" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -392,7 +393,7 @@
   <dimension ref="A1:D7"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E8" sqref="E8"/>
+      <selection activeCell="F5" sqref="F5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="13.8" x14ac:dyDescent="0.25"/>
@@ -421,8 +422,8 @@
       <c r="C2">
         <v>3</v>
       </c>
-      <c r="D2">
-        <v>100</v>
+      <c r="D2" t="n">
+        <v>96.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -436,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="D3">
-        <v>80</v>
+        <v>72</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -449,8 +450,8 @@
       <c r="C4">
         <v>2</v>
       </c>
-      <c r="D4">
-        <v>200</v>
+      <c r="D4" t="n">
+        <v>189.0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -463,8 +464,8 @@
       <c r="C5">
         <v>2</v>
       </c>
-      <c r="D5">
-        <v>200</v>
+      <c r="D5" t="n">
+        <v>196.0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -477,8 +478,8 @@
       <c r="C6">
         <v>1</v>
       </c>
-      <c r="D6">
-        <v>300</v>
+      <c r="D6" t="n">
+        <v>183.0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">

--- a/product.xlsx
+++ b/product.xlsx
@@ -436,8 +436,8 @@
       <c r="C3">
         <v>4</v>
       </c>
-      <c r="D3">
-        <v>72</v>
+      <c r="D3" t="n">
+        <v>69.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>196.0</v>
+        <v>194.0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>183.0</v>
+        <v>171.0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -492,8 +492,8 @@
       <c r="C7">
         <v>8</v>
       </c>
-      <c r="D7">
-        <v>50</v>
+      <c r="D7" t="n">
+        <v>49.0</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>189.0</v>
+        <v>187.0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>171.0</v>
+        <v>138.0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>49.0</v>
+        <v>47.0</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>96.0</v>
+        <v>89.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>69.0</v>
+        <v>65.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>187.0</v>
+        <v>185.0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>194.0</v>
+        <v>192.0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">

--- a/product.xlsx
+++ b/product.xlsx
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>89.0</v>
+        <v>87.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">

--- a/product.xlsx
+++ b/product.xlsx
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>87.0</v>
+        <v>78.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
@@ -437,7 +437,7 @@
         <v>4</v>
       </c>
       <c r="D3" t="n">
-        <v>65.0</v>
+        <v>62.0</v>
       </c>
     </row>
     <row r="4" spans="1:4" x14ac:dyDescent="0.25">
@@ -451,7 +451,7 @@
         <v>2</v>
       </c>
       <c r="D4" t="n">
-        <v>185.0</v>
+        <v>180.0</v>
       </c>
     </row>
     <row r="5" spans="1:4" x14ac:dyDescent="0.25">
@@ -465,7 +465,7 @@
         <v>2</v>
       </c>
       <c r="D5" t="n">
-        <v>192.0</v>
+        <v>190.0</v>
       </c>
     </row>
     <row r="6" spans="1:4" x14ac:dyDescent="0.25">
@@ -479,7 +479,7 @@
         <v>1</v>
       </c>
       <c r="D6" t="n">
-        <v>138.0</v>
+        <v>136.0</v>
       </c>
     </row>
     <row r="7" spans="1:4" x14ac:dyDescent="0.25">
@@ -493,7 +493,7 @@
         <v>8</v>
       </c>
       <c r="D7" t="n">
-        <v>47.0</v>
+        <v>37.0</v>
       </c>
     </row>
   </sheetData>

--- a/product.xlsx
+++ b/product.xlsx
@@ -423,7 +423,7 @@
         <v>3</v>
       </c>
       <c r="D2" t="n">
-        <v>78.0</v>
+        <v>74.0</v>
       </c>
     </row>
     <row r="3" spans="1:4" x14ac:dyDescent="0.25">
